--- a/results/inference/device/DeepBench_Raspberry_Pi_3.xlsx
+++ b/results/inference/device/DeepBench_Raspberry_Pi_3.xlsx
@@ -55,12 +55,6 @@
     <t>pad_h</t>
   </si>
   <si>
-    <t>S (filter height)</t>
-  </si>
-  <si>
-    <t>R (filter width)</t>
-  </si>
-  <si>
     <t>K  (number of filters)</t>
   </si>
   <si>
@@ -173,6 +167,12 @@
   </si>
   <si>
     <t>Int8 inputs 32 bit math</t>
+  </si>
+  <si>
+    <t>R (filter height)</t>
+  </si>
+  <si>
+    <t>S (filter width)</t>
   </si>
 </sst>
 </file>
@@ -662,7 +662,7 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -685,39 +685,39 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1098,37 +1098,37 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" t="s">
         <v>33</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="s">
         <v>34</v>
-      </c>
-      <c r="L20" t="s">
-        <v>35</v>
-      </c>
-      <c r="M20" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1436,30 +1436,30 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="C32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s">
         <v>10</v>
@@ -1474,16 +1474,16 @@
         <v>7</v>
       </c>
       <c r="N32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O32" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q32" t="s">
         <v>28</v>
-      </c>
-      <c r="P32" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -1521,15 +1521,15 @@
         <v>8</v>
       </c>
       <c r="N33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O33" s="2">
-        <f>(C33-H33+1+2*K33)/M33</f>
+        <f>(C33-I33+1+2*K33)/M33</f>
+        <v>20.375</v>
+      </c>
+      <c r="P33" s="2">
+        <f>(D33-H33+1+2*J33)/L33</f>
         <v>18.5</v>
-      </c>
-      <c r="P33" s="2">
-        <f>(D33-I33+1+2*J33)/L33</f>
-        <v>26</v>
       </c>
       <c r="Q33" s="3" t="e">
         <f>(2*O33*P33*F33*G33*E33*H33*I33)/(N33/1000)/10^9</f>
@@ -1576,11 +1576,11 @@
         <v>670.75300000000004</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" ref="O34:O49" si="3">(C34-H34+1+2*K34)/M34</f>
+        <f t="shared" ref="O34:O49" si="3">(C34-I34+1+2*K34)/M34</f>
         <v>112</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" ref="P34:P49" si="4">(D34-I34+1+2*J34)/L34</f>
+        <f t="shared" ref="P34:P49" si="4">(D34-H34+1+2*J34)/L34</f>
         <v>112</v>
       </c>
       <c r="Q34" s="3">
@@ -2480,47 +2480,47 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="9">
         <v>17.05</v>

--- a/results/inference/device/DeepBench_Raspberry_Pi_3.xlsx
+++ b/results/inference/device/DeepBench_Raspberry_Pi_3.xlsx
@@ -264,7 +264,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -289,8 +289,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -305,8 +317,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="36">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -319,6 +334,12 @@
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -330,6 +351,12 @@
     <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -662,7 +689,7 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1456,22 +1483,22 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" t="s">
         <v>49</v>
       </c>
-      <c r="I32" t="s">
-        <v>50</v>
-      </c>
       <c r="J32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" t="s">
         <v>10</v>
       </c>
-      <c r="K32" t="s">
-        <v>9</v>
-      </c>
       <c r="L32" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" t="s">
         <v>8</v>
-      </c>
-      <c r="M32" t="s">
-        <v>7</v>
       </c>
       <c r="N32" t="s">
         <v>36</v>
@@ -1514,25 +1541,25 @@
       <c r="K33">
         <v>8</v>
       </c>
-      <c r="L33" s="2">
-        <v>2</v>
-      </c>
-      <c r="M33">
+      <c r="L33" s="10">
         <v>8</v>
+      </c>
+      <c r="M33" s="2">
+        <v>2</v>
       </c>
       <c r="N33" t="s">
         <v>35</v>
       </c>
       <c r="O33" s="2">
-        <f>(C33-I33+1+2*K33)/M33</f>
-        <v>20.375</v>
+        <f>(C33-H33+1+2*K33)/L33</f>
+        <v>18.5</v>
       </c>
       <c r="P33" s="2">
-        <f>(D33-H33+1+2*J33)/L33</f>
-        <v>18.5</v>
+        <f>(D33-I33+1+2*J33)/M33</f>
+        <v>26</v>
       </c>
       <c r="Q33" s="3" t="e">
-        <f>(2*O33*P33*F33*G33*E33*H33*I33)/(N33/1000)/10^9</f>
+        <f>(2*O33*P33*F33*G33*E33*I33*H33)/(N33/1000)/10^9</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1576,15 +1603,15 @@
         <v>670.75300000000004</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" ref="O34:O49" si="3">(C34-I34+1+2*K34)/M34</f>
+        <f>(C34-H34+1+2*K34)/L34</f>
         <v>112</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" ref="P34:P49" si="4">(D34-H34+1+2*J34)/L34</f>
+        <f>(D34-I34+1+2*J34)/M34</f>
         <v>112</v>
       </c>
       <c r="Q34" s="3">
-        <f>(2*O34*P34*F34*G34*E34*H34*I34)/(N34/1000)/10^9</f>
+        <f>(2*O34*P34*F34*G34*E34*I34*H34)/(N34/1000)/10^9</f>
         <v>0.15320162265394263</v>
       </c>
     </row>
@@ -1628,15 +1655,15 @@
         <v>601.14700000000005</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="3"/>
+        <f>(C35-H35+1+2*K35)/L35</f>
         <v>56</v>
       </c>
       <c r="P35" s="2">
-        <f t="shared" si="4"/>
+        <f>(D35-I35+1+2*J35)/M35</f>
         <v>56</v>
       </c>
       <c r="Q35" s="3">
-        <f t="shared" ref="Q35:Q49" si="5">(2*O35*P35*F35*G35*E35*H35*I35)/(N35/1000)/10^9</f>
+        <f>(2*O35*P35*F35*G35*E35*I35*H35)/(N35/1000)/10^9</f>
         <v>0.17094063182549357</v>
       </c>
     </row>
@@ -1680,15 +1707,15 @@
         <v>577.96799999999996</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" si="3"/>
+        <f>(C36-H36+1+2*K36)/L36</f>
         <v>56</v>
       </c>
       <c r="P36" s="2">
-        <f t="shared" si="4"/>
+        <f>(D36-I36+1+2*J36)/M36</f>
         <v>56</v>
       </c>
       <c r="Q36" s="3">
-        <f t="shared" si="5"/>
+        <f>(2*O36*P36*F36*G36*E36*I36*H36)/(N36/1000)/10^9</f>
         <v>0.17779608559643442</v>
       </c>
     </row>
@@ -1732,15 +1759,15 @@
         <v>185.87200000000001</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" si="3"/>
+        <f>(C37-H37+1+2*K37)/L37</f>
         <v>28</v>
       </c>
       <c r="P37" s="2">
-        <f t="shared" si="4"/>
+        <f>(D37-I37+1+2*J37)/M37</f>
         <v>28</v>
       </c>
       <c r="Q37" s="3">
-        <f t="shared" si="5"/>
+        <f>(2*O37*P37*F37*G37*E37*I37*H37)/(N37/1000)/10^9</f>
         <v>0.27642799345786345</v>
       </c>
     </row>
@@ -1784,15 +1811,15 @@
         <v>557.25599999999997</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" si="3"/>
+        <f>(C38-H38+1+2*K38)/L38</f>
         <v>28</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" si="4"/>
+        <f>(D38-I38+1+2*J38)/M38</f>
         <v>28</v>
       </c>
       <c r="Q38" s="3">
-        <f t="shared" si="5"/>
+        <f>(2*O38*P38*F38*G38*E38*I38*H38)/(N38/1000)/10^9</f>
         <v>0.1844043814691991</v>
       </c>
     </row>
@@ -1836,15 +1863,15 @@
         <v>391.67899999999997</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" si="3"/>
+        <f>(C39-H39+1+2*K39)/L39</f>
         <v>28</v>
       </c>
       <c r="P39" s="2">
-        <f t="shared" si="4"/>
+        <f>(D39-I39+1+2*J39)/M39</f>
         <v>28</v>
       </c>
       <c r="Q39" s="3">
-        <f t="shared" si="5"/>
+        <f>(2*O39*P39*F39*G39*E39*I39*H39)/(N39/1000)/10^9</f>
         <v>0.26235883976419466</v>
       </c>
     </row>
@@ -1888,15 +1915,15 @@
         <v>168.21700000000001</v>
       </c>
       <c r="O40" s="2">
-        <f t="shared" si="3"/>
+        <f>(C40-H40+1+2*K40)/L40</f>
         <v>14</v>
       </c>
       <c r="P40" s="2">
-        <f t="shared" si="4"/>
+        <f>(D40-I40+1+2*J40)/M40</f>
         <v>14</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" si="5"/>
+        <f>(2*O40*P40*F40*G40*E40*I40*H40)/(N40/1000)/10^9</f>
         <v>0.30544013981939994</v>
       </c>
     </row>
@@ -1940,15 +1967,15 @@
         <v>633.46799999999996</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" si="3"/>
+        <f>(C41-H41+1+2*K41)/L41</f>
         <v>14</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" si="4"/>
+        <f>(D41-I41+1+2*J41)/M41</f>
         <v>14</v>
       </c>
       <c r="Q41" s="3">
-        <f t="shared" si="5"/>
+        <f>(2*O41*P41*F41*G41*E41*I41*H41)/(N41/1000)/10^9</f>
         <v>0.16221884609798759</v>
       </c>
     </row>
@@ -1992,15 +2019,15 @@
         <v>1258.2650000000001</v>
       </c>
       <c r="O42" s="2">
-        <f t="shared" si="3"/>
+        <f>(C42-H42+1+2*K42)/L42</f>
         <v>14</v>
       </c>
       <c r="P42" s="2">
-        <f t="shared" si="4"/>
+        <f>(D42-I42+1+2*J42)/M42</f>
         <v>14</v>
       </c>
       <c r="Q42" s="3">
-        <f t="shared" si="5"/>
+        <f>(2*O42*P42*F42*G42*E42*I42*H42)/(N42/1000)/10^9</f>
         <v>0.16333673431272422</v>
       </c>
     </row>
@@ -2044,15 +2071,15 @@
         <v>344.66800000000001</v>
       </c>
       <c r="O43" s="2">
-        <f t="shared" si="3"/>
+        <f>(C43-H43+1+2*K43)/L43</f>
         <v>14</v>
       </c>
       <c r="P43" s="2">
-        <f t="shared" si="4"/>
+        <f>(D43-I43+1+2*J43)/M43</f>
         <v>14</v>
       </c>
       <c r="Q43" s="3">
-        <f t="shared" si="5"/>
+        <f>(2*O43*P43*F43*G43*E43*I43*H43)/(N43/1000)/10^9</f>
         <v>0.29814327990994227</v>
       </c>
     </row>
@@ -2096,15 +2123,15 @@
         <v>652.13099999999997</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" si="3"/>
+        <f>(C44-H44+1+2*K44)/L44</f>
         <v>14</v>
       </c>
       <c r="P44" s="2">
-        <f t="shared" si="4"/>
+        <f>(D44-I44+1+2*J44)/M44</f>
         <v>14</v>
       </c>
       <c r="Q44" s="3">
-        <f t="shared" si="5"/>
+        <f>(2*O44*P44*F44*G44*E44*I44*H44)/(N44/1000)/10^9</f>
         <v>0.15757638879304925</v>
       </c>
     </row>
@@ -2148,15 +2175,15 @@
         <v>278.46800000000002</v>
       </c>
       <c r="O45" s="2">
-        <f t="shared" si="3"/>
+        <f>(C45-H45+1+2*K45)/L45</f>
         <v>7</v>
       </c>
       <c r="P45" s="2">
-        <f t="shared" si="4"/>
+        <f>(D45-I45+1+2*J45)/M45</f>
         <v>7</v>
       </c>
       <c r="Q45" s="3">
-        <f t="shared" si="5"/>
+        <f>(2*O45*P45*F45*G45*E45*I45*H45)/(N45/1000)/10^9</f>
         <v>0.18451033511929557</v>
       </c>
     </row>
@@ -2200,15 +2227,15 @@
         <v>149.422</v>
       </c>
       <c r="O46" s="2">
-        <f t="shared" si="3"/>
+        <f>(C46-H46+1+2*K46)/L46</f>
         <v>7</v>
       </c>
       <c r="P46" s="2">
-        <f t="shared" si="4"/>
+        <f>(D46-I46+1+2*J46)/M46</f>
         <v>7</v>
       </c>
       <c r="Q46" s="3">
-        <f t="shared" si="5"/>
+        <f>(2*O46*P46*F46*G46*E46*I46*H46)/(N46/1000)/10^9</f>
         <v>1.5473692495081046</v>
       </c>
     </row>
@@ -2252,15 +2279,15 @@
         <v>735.28200000000004</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" si="3"/>
+        <f>(C47-H47+1+2*K47)/L47</f>
         <v>7</v>
       </c>
       <c r="P47" s="2">
-        <f t="shared" si="4"/>
+        <f>(D47-I47+1+2*J47)/M47</f>
         <v>7</v>
       </c>
       <c r="Q47" s="3">
-        <f t="shared" si="5"/>
+        <f>(2*O47*P47*F47*G47*E47*I47*H47)/(N47/1000)/10^9</f>
         <v>0.13975651246732546</v>
       </c>
     </row>
@@ -2304,15 +2331,15 @@
         <v>1498.7280000000001</v>
       </c>
       <c r="O48" s="2">
-        <f t="shared" si="3"/>
+        <f>(C48-H48+1+2*K48)/L48</f>
         <v>7</v>
       </c>
       <c r="P48" s="2">
-        <f t="shared" si="4"/>
+        <f>(D48-I48+1+2*J48)/M48</f>
         <v>7</v>
       </c>
       <c r="Q48" s="3">
-        <f t="shared" si="5"/>
+        <f>(2*O48*P48*F48*G48*E48*I48*H48)/(N48/1000)/10^9</f>
         <v>0.13713021709075965</v>
       </c>
     </row>
@@ -2356,15 +2383,15 @@
         <v>563.92899999999997</v>
       </c>
       <c r="O49" s="2">
-        <f t="shared" si="3"/>
+        <f>(C49-H49+1+2*K49)/L49</f>
         <v>7</v>
       </c>
       <c r="P49" s="2">
-        <f t="shared" si="4"/>
+        <f>(D49-I49+1+2*J49)/M49</f>
         <v>7</v>
       </c>
       <c r="Q49" s="3">
-        <f t="shared" si="5"/>
+        <f>(2*O49*P49*F49*G49*E49*I49*H49)/(N49/1000)/10^9</f>
         <v>0.18222231522053306</v>
       </c>
     </row>

--- a/results/inference/device/DeepBench_Raspberry_Pi_3.xlsx
+++ b/results/inference/device/DeepBench_Raspberry_Pi_3.xlsx
@@ -686,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1087,7 +1087,7 @@
         <v>0.52211095553087739</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:19">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1099,7 +1099,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:19">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1111,7 +1111,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:19">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1123,7 +1123,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:19">
       <c r="B21" s="1"/>
       <c r="C21">
         <v>7680</v>
@@ -1194,7 +1194,7 @@
         <v>1.8246008279124777</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:19">
       <c r="B22" s="1"/>
       <c r="C22">
         <v>7680</v>
@@ -1230,7 +1230,7 @@
         <v>6.1237807052188549</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:19">
       <c r="B23" s="1"/>
       <c r="C23">
         <v>10752</v>
@@ -1266,7 +1266,7 @@
         <v>1.8237277928334839</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:19">
       <c r="B24" s="1"/>
       <c r="C24">
         <v>10752</v>
@@ -1302,7 +1302,7 @@
         <v>6.119149895770553</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:19">
       <c r="B25" s="1"/>
       <c r="C25">
         <v>7680</v>
@@ -1338,7 +1338,7 @@
         <v>0.92824923317495645</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:19">
       <c r="B26" s="1"/>
       <c r="C26">
         <v>7680</v>
@@ -1373,8 +1373,12 @@
         <f t="shared" si="2"/>
         <v>3.1264453102230148</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="S26">
+        <f>ROUNDDOWN(1.6,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="B27" s="1"/>
       <c r="C27">
         <v>10752</v>
@@ -1410,7 +1414,7 @@
         <v>0.92516612814729016</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:19">
       <c r="B28" s="1"/>
       <c r="C28">
         <v>10752</v>
@@ -1446,10 +1450,10 @@
         <v>3.1022798750891694</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:19">
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:19">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1461,12 +1465,12 @@
       <c r="I30" s="1"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:19">
       <c r="A31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:19">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -1551,15 +1555,15 @@
         <v>35</v>
       </c>
       <c r="O33" s="2">
-        <f>(C33-H33+1+2*K33)/L33</f>
-        <v>18.5</v>
+        <f>1+ROUNDDOWN((($C33-$H33+2*$J33)/$L33),0)</f>
+        <v>19</v>
       </c>
       <c r="P33" s="2">
-        <f>(D33-I33+1+2*J33)/M33</f>
+        <f>1+ROUNDDOWN((($D33-$I33+2*$K33)/$M33),0)</f>
         <v>26</v>
       </c>
       <c r="Q33" s="3" t="e">
-        <f>(2*O33*P33*F33*G33*E33*I33*H33)/(N33/1000)/10^9</f>
+        <f t="shared" ref="Q33:Q49" si="3">(2*O33*P33*F33*G33*E33*I33*H33)/(N33/1000)/10^9</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1603,15 +1607,15 @@
         <v>670.75300000000004</v>
       </c>
       <c r="O34" s="2">
-        <f>(C34-H34+1+2*K34)/L34</f>
+        <f t="shared" ref="O34:O49" si="4">1+ROUNDDOWN((($C34-$H34+2*$J34)/$L34),0)</f>
         <v>112</v>
       </c>
       <c r="P34" s="2">
-        <f>(D34-I34+1+2*J34)/M34</f>
+        <f t="shared" ref="P34:P49" si="5">1+ROUNDDOWN((($D34-$I34+2*$K34)/$M34),0)</f>
         <v>112</v>
       </c>
       <c r="Q34" s="3">
-        <f>(2*O34*P34*F34*G34*E34*I34*H34)/(N34/1000)/10^9</f>
+        <f t="shared" si="3"/>
         <v>0.15320162265394263</v>
       </c>
     </row>
@@ -1655,15 +1659,15 @@
         <v>601.14700000000005</v>
       </c>
       <c r="O35" s="2">
-        <f>(C35-H35+1+2*K35)/L35</f>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="P35" s="2">
-        <f>(D35-I35+1+2*J35)/M35</f>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="Q35" s="3">
-        <f>(2*O35*P35*F35*G35*E35*I35*H35)/(N35/1000)/10^9</f>
+        <f t="shared" si="3"/>
         <v>0.17094063182549357</v>
       </c>
     </row>
@@ -1707,15 +1711,15 @@
         <v>577.96799999999996</v>
       </c>
       <c r="O36" s="2">
-        <f>(C36-H36+1+2*K36)/L36</f>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="P36" s="2">
-        <f>(D36-I36+1+2*J36)/M36</f>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="Q36" s="3">
-        <f>(2*O36*P36*F36*G36*E36*I36*H36)/(N36/1000)/10^9</f>
+        <f t="shared" si="3"/>
         <v>0.17779608559643442</v>
       </c>
     </row>
@@ -1759,15 +1763,15 @@
         <v>185.87200000000001</v>
       </c>
       <c r="O37" s="2">
-        <f>(C37-H37+1+2*K37)/L37</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="P37" s="2">
-        <f>(D37-I37+1+2*J37)/M37</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="Q37" s="3">
-        <f>(2*O37*P37*F37*G37*E37*I37*H37)/(N37/1000)/10^9</f>
+        <f t="shared" si="3"/>
         <v>0.27642799345786345</v>
       </c>
     </row>
@@ -1811,15 +1815,15 @@
         <v>557.25599999999997</v>
       </c>
       <c r="O38" s="2">
-        <f>(C38-H38+1+2*K38)/L38</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="P38" s="2">
-        <f>(D38-I38+1+2*J38)/M38</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="Q38" s="3">
-        <f>(2*O38*P38*F38*G38*E38*I38*H38)/(N38/1000)/10^9</f>
+        <f t="shared" si="3"/>
         <v>0.1844043814691991</v>
       </c>
     </row>
@@ -1863,15 +1867,15 @@
         <v>391.67899999999997</v>
       </c>
       <c r="O39" s="2">
-        <f>(C39-H39+1+2*K39)/L39</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="P39" s="2">
-        <f>(D39-I39+1+2*J39)/M39</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="Q39" s="3">
-        <f>(2*O39*P39*F39*G39*E39*I39*H39)/(N39/1000)/10^9</f>
+        <f t="shared" si="3"/>
         <v>0.26235883976419466</v>
       </c>
     </row>
@@ -1915,15 +1919,15 @@
         <v>168.21700000000001</v>
       </c>
       <c r="O40" s="2">
-        <f>(C40-H40+1+2*K40)/L40</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="P40" s="2">
-        <f>(D40-I40+1+2*J40)/M40</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="Q40" s="3">
-        <f>(2*O40*P40*F40*G40*E40*I40*H40)/(N40/1000)/10^9</f>
+        <f t="shared" si="3"/>
         <v>0.30544013981939994</v>
       </c>
     </row>
@@ -1967,15 +1971,15 @@
         <v>633.46799999999996</v>
       </c>
       <c r="O41" s="2">
-        <f>(C41-H41+1+2*K41)/L41</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="P41" s="2">
-        <f>(D41-I41+1+2*J41)/M41</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="Q41" s="3">
-        <f>(2*O41*P41*F41*G41*E41*I41*H41)/(N41/1000)/10^9</f>
+        <f t="shared" si="3"/>
         <v>0.16221884609798759</v>
       </c>
     </row>
@@ -2019,15 +2023,15 @@
         <v>1258.2650000000001</v>
       </c>
       <c r="O42" s="2">
-        <f>(C42-H42+1+2*K42)/L42</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="P42" s="2">
-        <f>(D42-I42+1+2*J42)/M42</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="Q42" s="3">
-        <f>(2*O42*P42*F42*G42*E42*I42*H42)/(N42/1000)/10^9</f>
+        <f t="shared" si="3"/>
         <v>0.16333673431272422</v>
       </c>
     </row>
@@ -2071,15 +2075,15 @@
         <v>344.66800000000001</v>
       </c>
       <c r="O43" s="2">
-        <f>(C43-H43+1+2*K43)/L43</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="P43" s="2">
-        <f>(D43-I43+1+2*J43)/M43</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="Q43" s="3">
-        <f>(2*O43*P43*F43*G43*E43*I43*H43)/(N43/1000)/10^9</f>
+        <f t="shared" si="3"/>
         <v>0.29814327990994227</v>
       </c>
     </row>
@@ -2123,15 +2127,15 @@
         <v>652.13099999999997</v>
       </c>
       <c r="O44" s="2">
-        <f>(C44-H44+1+2*K44)/L44</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="P44" s="2">
-        <f>(D44-I44+1+2*J44)/M44</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="Q44" s="3">
-        <f>(2*O44*P44*F44*G44*E44*I44*H44)/(N44/1000)/10^9</f>
+        <f t="shared" si="3"/>
         <v>0.15757638879304925</v>
       </c>
     </row>
@@ -2175,15 +2179,15 @@
         <v>278.46800000000002</v>
       </c>
       <c r="O45" s="2">
-        <f>(C45-H45+1+2*K45)/L45</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="P45" s="2">
-        <f>(D45-I45+1+2*J45)/M45</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q45" s="3">
-        <f>(2*O45*P45*F45*G45*E45*I45*H45)/(N45/1000)/10^9</f>
+        <f t="shared" si="3"/>
         <v>0.18451033511929557</v>
       </c>
     </row>
@@ -2227,15 +2231,15 @@
         <v>149.422</v>
       </c>
       <c r="O46" s="2">
-        <f>(C46-H46+1+2*K46)/L46</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="P46" s="2">
-        <f>(D46-I46+1+2*J46)/M46</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q46" s="3">
-        <f>(2*O46*P46*F46*G46*E46*I46*H46)/(N46/1000)/10^9</f>
+        <f t="shared" si="3"/>
         <v>1.5473692495081046</v>
       </c>
     </row>
@@ -2279,15 +2283,15 @@
         <v>735.28200000000004</v>
       </c>
       <c r="O47" s="2">
-        <f>(C47-H47+1+2*K47)/L47</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="P47" s="2">
-        <f>(D47-I47+1+2*J47)/M47</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q47" s="3">
-        <f>(2*O47*P47*F47*G47*E47*I47*H47)/(N47/1000)/10^9</f>
+        <f t="shared" si="3"/>
         <v>0.13975651246732546</v>
       </c>
     </row>
@@ -2331,15 +2335,15 @@
         <v>1498.7280000000001</v>
       </c>
       <c r="O48" s="2">
-        <f>(C48-H48+1+2*K48)/L48</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="P48" s="2">
-        <f>(D48-I48+1+2*J48)/M48</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q48" s="3">
-        <f>(2*O48*P48*F48*G48*E48*I48*H48)/(N48/1000)/10^9</f>
+        <f t="shared" si="3"/>
         <v>0.13713021709075965</v>
       </c>
     </row>
@@ -2383,15 +2387,15 @@
         <v>563.92899999999997</v>
       </c>
       <c r="O49" s="2">
-        <f>(C49-H49+1+2*K49)/L49</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="P49" s="2">
-        <f>(D49-I49+1+2*J49)/M49</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="Q49" s="3">
-        <f>(2*O49*P49*F49*G49*E49*I49*H49)/(N49/1000)/10^9</f>
+        <f t="shared" si="3"/>
         <v>0.18222231522053306</v>
       </c>
     </row>
